--- a/templates/purchase-order.xlsx
+++ b/templates/purchase-order.xlsx
@@ -1392,32 +1392,16 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="174" fontId="44" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="174" fontId="54" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1482,6 +1466,22 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="78">
@@ -1915,8 +1915,8 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1952,28 +1952,28 @@
     <row r="2" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
       <c r="J2" s="2"/>
       <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
       <c r="J3" s="2"/>
       <c r="K3" s="18"/>
     </row>
@@ -1993,15 +1993,15 @@
     <row r="5" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
       <c r="J5" s="2"/>
       <c r="K5" s="18"/>
     </row>
@@ -2036,10 +2036,10 @@
       <c r="B8" s="2"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
-      <c r="E8" s="80" t="s">
+      <c r="E8" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="80"/>
+      <c r="F8" s="97"/>
       <c r="G8" s="24"/>
       <c r="H8" s="25" t="s">
         <v>6</v>
@@ -2053,8 +2053,8 @@
       <c r="B9" s="2"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
       <c r="G9" s="26"/>
       <c r="H9" s="6" t="s">
         <v>11</v>
@@ -2068,8 +2068,8 @@
       <c r="B10" s="2"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
       <c r="G10" s="26"/>
       <c r="H10" s="6" t="s">
         <v>19</v>
@@ -2098,8 +2098,8 @@
       <c r="B12" s="2"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
       <c r="G12" s="27"/>
       <c r="H12" s="8" t="s">
         <v>13</v>
@@ -2193,8 +2193,8 @@
       <c r="A18" s="45"/>
       <c r="B18" s="40"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
@@ -2213,18 +2213,18 @@
       <c r="H19" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="73"/>
       <c r="J19" s="40"/>
       <c r="K19" s="49"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="45"/>
       <c r="B20" s="40"/>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="52"/>
@@ -2250,24 +2250,24 @@
     <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
       <c r="B22" s="40"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="83"/>
       <c r="F22" s="56"/>
-      <c r="G22" s="98" t="s">
+      <c r="G22" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="98"/>
-      <c r="I22" s="75"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="74"/>
       <c r="J22" s="40"/>
       <c r="K22" s="49"/>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
       <c r="B23" s="40"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="91"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
       <c r="F23" s="59"/>
       <c r="G23" s="59"/>
       <c r="H23" s="59"/>
@@ -2279,15 +2279,15 @@
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
       <c r="B24" s="40"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="84" t="s">
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
       <c r="J24" s="40"/>
       <c r="K24" s="49"/>
       <c r="M24" s="3"/>
@@ -2295,13 +2295,13 @@
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
       <c r="B25" s="40"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
       <c r="J25" s="40"/>
       <c r="K25" s="49"/>
       <c r="M25" s="3"/>
@@ -2309,27 +2309,27 @@
     <row r="26" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="45"/>
       <c r="B26" s="40"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
       <c r="J26" s="40"/>
       <c r="K26" s="49"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
       <c r="B27" s="40"/>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
       <c r="I27" s="71"/>
       <c r="J27" s="40"/>
       <c r="K27" s="49"/>
@@ -2337,16 +2337,16 @@
     <row r="28" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45"/>
       <c r="B28" s="40"/>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="96" t="s">
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
       <c r="I28" s="70" t="s">
         <v>15</v>
       </c>
@@ -2356,9 +2356,9 @@
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="45"/>
       <c r="B29" s="40"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
@@ -2369,41 +2369,41 @@
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
       <c r="B30" s="40"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="84" t="s">
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
       <c r="J30" s="40"/>
       <c r="K30" s="49"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45"/>
       <c r="B31" s="40"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
       <c r="J31" s="40"/>
       <c r="K31" s="49"/>
     </row>
     <row r="32" spans="1:13" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="45"/>
       <c r="B32" s="40"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
       <c r="J32" s="40"/>
       <c r="K32" s="49"/>
     </row>
@@ -2413,11 +2413,11 @@
       <c r="C33" s="55"/>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
-      <c r="F33" s="97" t="s">
+      <c r="F33" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="97"/>
-      <c r="H33" s="95"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="90"/>
       <c r="I33" s="71"/>
       <c r="J33" s="40"/>
       <c r="K33" s="49"/>
@@ -2428,11 +2428,11 @@
       <c r="C34" s="64"/>
       <c r="D34" s="64"/>
       <c r="E34" s="64"/>
-      <c r="F34" s="83" t="s">
+      <c r="F34" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
       <c r="I34" s="72" t="s">
         <v>15</v>
       </c>
@@ -2454,7 +2454,12 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="C2:I3"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E32"/>
@@ -2467,11 +2472,7 @@
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C2:I3"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
